--- a/data/income_statement/1digit/total/N_IS_TOTAL.xlsx
+++ b/data/income_statement/1digit/total/N_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>N-Administrative and support service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>N-Administrative and support service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,251 +841,286 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>28326936.11625</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>33475940.9124</v>
+        <v>33779126.8401</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>43078670.85856</v>
+        <v>43082625.62307</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>48678575.51524</v>
+        <v>48707367.12761001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>59651909.33263001</v>
+        <v>59765827.73539001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>73226275.97437002</v>
+        <v>73801183.98225002</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>84521840.55563</v>
+        <v>88064150.56271</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>97490039.15469</v>
+        <v>98029422.90519001</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>130200293.80331</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>159756575.96102</v>
+        <v>161003361.24517</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>192053098.35871</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>194493471.54936</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>158346659.179</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>22067387.97955</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>25967064.54218</v>
+        <v>26268785.26221</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>33336123.98054</v>
+        <v>33340055.70488001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>39220863.68148001</v>
+        <v>39248325.9838</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>49082805.82710999</v>
+        <v>49195724.00991</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>59793420.34908001</v>
+        <v>60271494.48952</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>70733580.05415</v>
+        <v>73492255.04980999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>84502384.72907001</v>
+        <v>85023614.76142</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>108041031.00352</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>129113887.58486</v>
+        <v>130274772.90865</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>150261481.59115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>152527254.69764</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>141636711.255</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>5556997.18877</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>6618059.191610001</v>
+        <v>6619193.55509</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>8771040.0371</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>8374145.979919998</v>
+        <v>8374758.313030001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>9331623.591529997</v>
+        <v>9332171.340919998</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>11910900.10881</v>
+        <v>12005232.40019</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>11767586.49664</v>
+        <v>12518719.3861</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>10538458.27252</v>
+        <v>10550644.2934</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>18886328.24316</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>27023047.35405</v>
+        <v>27090586.59514</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>37768346.87935</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>37900719.82521</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>12856897.92</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>702550.9479299998</v>
+        <v>702550.94793</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>890817.1786099999</v>
+        <v>891148.0227999998</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>971506.84092</v>
+        <v>971529.8810900002</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>1083565.85384</v>
+        <v>1084282.83078</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>1237479.91399</v>
+        <v>1237932.38456</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>1521955.51648</v>
+        <v>1524457.09254</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>2020674.00484</v>
+        <v>2053176.1268</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>2449196.1531</v>
+        <v>2455163.85037</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>3272934.55663</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>3619641.02211</v>
+        <v>3638001.74138</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>4023269.88821</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>4065497.026510001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>3853050.004</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>214932.76805</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>274251.09243</v>
+        <v>275310.9274099999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>361614.56077</v>
+        <v>361616.86949</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>415880.24202</v>
+        <v>415882.12434</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>496619.56507</v>
+        <v>496763.66846</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>772945.3863699998</v>
+        <v>773248.2196699999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>778945.5815999999</v>
+        <v>801135.07148</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1146960.15116</v>
+        <v>1193362.67727</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>1481003.78689</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>2098395.55305</v>
+        <v>2099865.993869999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>2122192.27931</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>2130920.42419</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>2879816.046</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>157340.27105</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>182399.9832</v>
+        <v>183459.81818</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>244434.57046</v>
+        <v>244436.87918</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>274566.5919000001</v>
+        <v>274568.47422</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>327592.57161</v>
+        <v>327726.88454</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>580620.2843499999</v>
+        <v>580904.1695399999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>527234.1806000001</v>
+        <v>541347.8886899999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>869735.3094199998</v>
+        <v>873946.96166</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>1064607.75546</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1517859.02499</v>
+        <v>1519191.39155</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1764724.25549</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1771328.47346</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>2443135.212</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>50658.08635000001</v>
+        <v>50658.08634999999</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>79641.82043000001</v>
@@ -1196,34 +1132,39 @@
         <v>133627.56763</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>142369.77887</v>
+        <v>142379.56933</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>182324.24748</v>
+        <v>182334.37784</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>239539.08772</v>
+        <v>247590.47741</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>255316.50459</v>
+        <v>297447.17182</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>387349.96004</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>533230.77679</v>
+        <v>533281.67065</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>290992.55541</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>291701.28715</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>268049.339</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>6934.410649999999</v>
+        <v>6934.41065</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>12209.2888</v>
@@ -1232,151 +1173,171 @@
         <v>10856.87412</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>7686.08249</v>
+        <v>7686.082489999999</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>26657.21459</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>10000.85454</v>
+        <v>10009.67229</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>12172.31328</v>
+        <v>12196.70538</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>21908.33715</v>
+        <v>21968.54379</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>29046.07139</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>47305.75126999999</v>
+        <v>47392.93167000001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>66475.46841</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>67890.66357999999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>168631.495</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>28112003.3482</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>33201689.81997</v>
+        <v>33503815.91269</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>42717056.29779</v>
+        <v>42721008.75358</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>48262695.27322</v>
+        <v>48291485.00327001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>59155289.76756</v>
+        <v>59269064.06693</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>72453330.588</v>
+        <v>73027935.76258001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>83742894.97403</v>
+        <v>87263015.49123</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>96343079.00353</v>
+        <v>96836060.22792001</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>128719290.01642</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>157658180.40797</v>
+        <v>158903495.2513</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>189930906.0794</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>192362551.12517</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>155466843.133</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>24231445.02107999</v>
+        <v>24231445.02108</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>29003469.44815999</v>
+        <v>29264440.16374</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>36916681.52772</v>
+        <v>36920147.88923001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>41997161.05926</v>
+        <v>42023243.91328</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>51499721.09528001</v>
+        <v>51609460.51844999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>63984894.95091001</v>
+        <v>64472471.83431</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>73596117.18944</v>
+        <v>76688724.66687</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>84519397.98774999</v>
+        <v>84813899.15671001</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>113672203.87934</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>137632187.77939</v>
+        <v>138746965.60647</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>167146788.3134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>169060001.00923</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>134999029.459</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>527354.4733600001</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>432423.6879500001</v>
+        <v>432423.68795</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>594807.11055</v>
+        <v>594807.1105500001</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>587355.04825</v>
+        <v>587355.64825</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>736835.07947</v>
+        <v>749748.3650499999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>830284.7174699999</v>
+        <v>833154.46448</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>937634.6865299999</v>
+        <v>951426.5865099998</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1298082.03954</v>
+        <v>1304986.21303</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>2336957.69764</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2003635.28125</v>
+        <v>2015393.23403</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>2491631.62385</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2551706.6958</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2991434.634</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>1976404.49538</v>
@@ -1385,82 +1346,92 @@
         <v>2299349.14827</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>2982320.00026</v>
+        <v>2982389.33539</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>3435003.66532</v>
+        <v>3436112.016309999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>4198014.34827</v>
+        <v>4227567.09925</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>5556444.00103</v>
+        <v>5610052.61298</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>7511251.209650001</v>
+        <v>7690556.865110001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>9216060.23395</v>
+        <v>9254820.855300002</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>12935421.55192</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>13826783.50159</v>
+        <v>13923520.17596</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>14525593.67764</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>14832782.90216</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>17862293.41</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>21681020.03554</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>26184338.8566</v>
+        <v>26445309.57218</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>33204083.92998</v>
+        <v>33207480.95636</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>37724220.66222999</v>
+        <v>37749194.56526</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>46193057.37888</v>
+        <v>46260330.76548999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>57015229.64396999</v>
+        <v>57446304.32891001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>64397210.35391001</v>
+        <v>66923064.98562</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>72638412.07069001</v>
+        <v>72887211.92730001</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>97010983.8821</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>119806927.85637</v>
+        <v>120810991.45557</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>148718358.96596</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>150258207.31969</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>112327661.985</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>46666.0168</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>87357.75533999999</v>
+        <v>87357.75534</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>135470.48693</v>
@@ -1472,106 +1443,121 @@
         <v>371814.28866</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>582936.5884400001</v>
+        <v>582960.4279400001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>750020.93935</v>
+        <v>1123676.22963</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1366843.64357</v>
+        <v>1366880.16108</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>1388840.74768</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1994841.14018</v>
+        <v>1997060.74091</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>1411204.04595</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1417304.09158</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>1817639.43</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>3880558.32712</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>4198220.37181</v>
+        <v>4239375.74895</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>5800374.77007</v>
+        <v>5800860.86435</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>6265534.213960001</v>
+        <v>6268241.089989999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>7655568.67228</v>
+        <v>7659603.54848</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>8468435.637089999</v>
+        <v>8555463.928270001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>10146777.78459</v>
+        <v>10574290.82436</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>11823681.01578</v>
+        <v>12022161.07121</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>15047086.13708</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>20025992.62858</v>
+        <v>20156529.64483</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>22784117.766</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>23302550.11594</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>20467813.674</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>3214652.30604</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>3634604.38515</v>
+        <v>3666106.37586</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>4523329.90173</v>
+        <v>4523753.042790001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>5295744.14867</v>
+        <v>5298291.690229999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>5996460.136580001</v>
+        <v>6002751.692289999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>7324898.11103</v>
+        <v>7371610.19206</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>8469634.22178</v>
+        <v>8791077.05132</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>10034693.56951</v>
+        <v>10208818.77532</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>12068971.62387</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>14668951.39827</v>
+        <v>14799179.93917</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>16729129.71339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>16999921.37141</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>16768703.309</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>10476.02647</v>
@@ -1589,10 +1575,10 @@
         <v>26592.15118</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>27473.75891</v>
+        <v>27491.32138</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>35270.61628</v>
+        <v>35335.01371</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>35627.13576999999</v>
@@ -1601,16 +1587,21 @@
         <v>112563.5824</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>156158.78604</v>
+        <v>156162.9901199999</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>42032.37155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>39182.93553</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>71642.109</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>497006.73784</v>
@@ -1619,178 +1610,198 @@
         <v>607337.3681000001</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>802814.20215</v>
+        <v>802877.48411</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1015574.78404</v>
+        <v>1015613.12307</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1125874.58441</v>
+        <v>1126248.83776</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1471246.34024</v>
+        <v>1474585.5074</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1729789.42246</v>
+        <v>1792723.53071</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>2011637.38122</v>
+        <v>2114953.88225</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>2649348.65821</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>3284923.21263</v>
+        <v>3309015.1659</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>3700177.49726</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>3724177.301669999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>2941503.535</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>2707169.541730001</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>3013382.84817</v>
+        <v>3044884.83888</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>3699090.7153</v>
+        <v>3699450.5744</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>4256136.03633</v>
+        <v>4258645.238860001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>4843993.400989999</v>
+        <v>4849910.703349999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>5826178.01188</v>
+        <v>5869533.36328</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>6704574.18304</v>
+        <v>6963018.5069</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>7987429.05252</v>
+        <v>8058237.757300001</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>9307059.383259999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>11227869.3996</v>
+        <v>11334001.78315</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>12986919.84458</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>13236561.13421</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>13755557.665</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>665906.0210800001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>563615.9866599998</v>
+        <v>573269.37309</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1277044.86834</v>
+        <v>1277107.82156</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>969790.0652900002</v>
+        <v>969949.3997600001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1659108.5357</v>
+        <v>1656851.85619</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1143537.52606</v>
+        <v>1183853.73621</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1677143.56281</v>
+        <v>1783213.77304</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1788987.44627</v>
+        <v>1813342.29589</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>2978114.51321</v>
+        <v>2978114.513210001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>5357041.23031</v>
+        <v>5357349.70566</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>6054988.052610001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>6302628.74453</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>3699110.365</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>1639115.57208</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>2019781.296849999</v>
+        <v>2022986.555050001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>2278386.79079</v>
+        <v>2278387.62383</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2197608.64208</v>
+        <v>2197683.52409</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>2570820.68389</v>
+        <v>2572024.22333</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>3629433.33004</v>
+        <v>3642763.48315</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>5913419.63524</v>
+        <v>6106837.14534</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>4983803.91401</v>
+        <v>5012241.78691</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>8914582.93891</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>27219189.27514</v>
+        <v>27234342.21299</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>18978192.92198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>19002331.16176</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>21267620.345</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>73783.34018000001</v>
+        <v>73783.34018</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>126754.54042</v>
+        <v>126754.56019</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>79995.76559000002</v>
+        <v>79995.76559000001</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>93802.73999</v>
+        <v>93802.73999000002</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>65034.84732</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>64004.42352999999</v>
+        <v>64004.80602999999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>48712.41344</v>
+        <v>51600.60597</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>90819.73074</v>
+        <v>91337.17299000002</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>103638.37901</v>
@@ -1799,19 +1810,24 @@
         <v>146600.9103</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>131746.64181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>131897.0214</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>153480.934</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>35598.99759</v>
+        <v>35598.99758999999</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>78338.08436000001</v>
+        <v>78611.68436</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>111827.94352</v>
@@ -1820,16 +1836,16 @@
         <v>268934.7861</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>57696.45897000001</v>
+        <v>57696.45897</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>91759.53231000001</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>96534.67669999997</v>
+        <v>96912.44508</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>135225.479</v>
+        <v>135494.49574</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>130477.72726</v>
@@ -1838,91 +1854,106 @@
         <v>188951.41125</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>2547951.767</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>2547997.6581</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>404834.248</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>138341.45092</v>
+        <v>138341.4509199999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>111190.48091</v>
+        <v>113580.00964</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>149067.84707</v>
+        <v>149068.68011</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>207891.30169</v>
+        <v>207904.82442</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>210340.25562</v>
+        <v>210409.70732</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>261878.23812</v>
+        <v>266328.74757</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>336311.2952</v>
+        <v>355420.74281</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>394640.2065499999</v>
+        <v>409730.52826</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>605725.8881000001</v>
+        <v>605725.8881</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1086808.14261</v>
+        <v>1087131.18167</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1284175.45847</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1285742.65006</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1177216.026</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>34604.13437000001</v>
+        <v>34604.13437</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>39229.2254</v>
+        <v>39229.22539999999</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>46990.14415000001</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>46391.44323999999</v>
+        <v>46391.44324</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>54512.92254</v>
+        <v>54512.92254000001</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>62351.84033</v>
+        <v>62665.87224</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>69323.48961</v>
+        <v>69436.13949</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>74180.88688999999</v>
+        <v>74180.88688999998</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>78956.71927</v>
+        <v>78956.71927000002</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>94571.25198999998</v>
+        <v>94581.47967</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>134112.19278</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>134740.42981</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>55393.831</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>33694.58867</v>
@@ -1937,16 +1968,16 @@
         <v>18101.32701</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>23025.32302</v>
+        <v>23073.95955</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>28153.69018</v>
+        <v>28241.40346</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>43322.11539</v>
+        <v>43622.35459</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>54000.40882</v>
+        <v>57103.25422</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>139276.21591</v>
@@ -1955,19 +1986,24 @@
         <v>81191.44751999999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>190054.59954</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>191495.39408</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>168369.336</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>19396.8935</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>8524.421390000001</v>
+        <v>8524.42139</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>25964.4761</v>
@@ -1976,70 +2012,80 @@
         <v>36041.59761</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>40383.6667</v>
+        <v>40383.66669999999</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>83566.70339</v>
+        <v>83625.23260999998</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>150466.45373</v>
+        <v>150632.33229</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>48948.26499</v>
+        <v>48989.68702</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>116911.92853</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>141012.21091</v>
+        <v>141016.35742</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>93185.37844999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>93428.78895999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>160047.315</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>1036255.51741</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1119532.93882</v>
+        <v>1119630.23372</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>1516067.50382</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1071133.35367</v>
+        <v>1071194.71295</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1667749.10179</v>
+        <v>1668726.48374</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2290942.548759999</v>
+        <v>2299139.40698</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>4312519.563899999</v>
+        <v>4465839.13281</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>3070281.95985</v>
+        <v>3076717.04209</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>6171791.21716</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>23152021.93223</v>
+        <v>23166803.77256</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>12539203.01191</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>12550189.55546</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>16200960.944</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>2271.67542</v>
@@ -2060,10 +2106,10 @@
         <v>1409.99725</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>2680.42415</v>
+        <v>2767.40351</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>5144.123570000001</v>
+        <v>5144.218569999999</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>3153.79543</v>
@@ -2074,14 +2120,19 @@
       <c r="M33" s="48" t="n">
         <v>12134.20297</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>6995.147</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>348.0755599999999</v>
+        <v>348.07556</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>883.46552</v>
@@ -2093,109 +2144,124 @@
         <v>297.7866</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>4092.71437</v>
+        <v>4216.90702</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>892.6849999999999</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>690.3477800000001</v>
+        <v>693.24726</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>4914.47682</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>294.5648800000001</v>
+        <v>294.56488</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>7271.7417</v>
+        <v>7459.989219999999</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>5779.58479</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>5800.36346</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>688.482</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>264820.89846</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>502680.94664</v>
+        <v>503125.7614400001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>325238.3779499999</v>
+        <v>325238.37795</v>
       </c>
       <c r="F35" s="48" t="n">
         <v>453247.74618</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>446575.94161</v>
+        <v>446559.81822</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>744473.6711700001</v>
+        <v>744695.7997</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>852858.85534</v>
+        <v>869912.7415299999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1105648.37678</v>
+        <v>1108630.02431</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>1564356.50336</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>2316119.72727</v>
+        <v>2315965.16402</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2039850.08426</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>2048905.09746</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>2939634.082</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>1300964.17712</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>1212726.50749</v>
+        <v>1212833.98415</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2472048.12403</v>
+        <v>2472053.62122</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1151851.82425</v>
+        <v>1151904.04478</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2458100.202649999</v>
+        <v>2459576.279999999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2596902.76949</v>
+        <v>2607851.54903</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>5084906.340469999</v>
+        <v>5277710.6522</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>4430432.10821</v>
+        <v>4442557.19886</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>8320345.86112</v>
+        <v>8320345.861119999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>27827263.55319</v>
+        <v>27835550.15853001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>15772369.38992</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>15780218.90443</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>19116129.012</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>28531.43465</v>
@@ -2207,73 +2273,83 @@
         <v>43818.94128</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>49084.82772000001</v>
+        <v>49084.82772</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>41854.34964</v>
+        <v>41854.69704000001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>41597.56463999999</v>
+        <v>41600.06567</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>65434.48358</v>
+        <v>66407.97738</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>54763.43597</v>
+        <v>54769.49631</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>65500.78919999999</v>
+        <v>65500.78919999998</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>138688.92381</v>
+        <v>138710.7989199999</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>117160.84439</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>117469.46288</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>56971.82</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>79541.20515000002</v>
+        <v>79541.20515000001</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>65423.79429999999</v>
+        <v>65445.86960999999</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>77659.54201999999</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>68463.67606999999</v>
+        <v>68463.67607</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>78118.14541000001</v>
+        <v>78218.54965999999</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>179517.2891</v>
+        <v>180645.35233</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>171700.49116</v>
+        <v>173285.62057</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>131141.53125</v>
+        <v>134613.51121</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>176095.20543</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>259902.10778</v>
+        <v>260883.38059</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>598364.9189699999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>601054.12659</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>398798.607</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>4087.42076</v>
@@ -2282,10 +2358,10 @@
         <v>2053.17117</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>7632.88484</v>
+        <v>7632.884839999999</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>5411.90938</v>
+        <v>5411.909379999999</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>23886.88308</v>
@@ -2294,10 +2370,10 @@
         <v>35084.99683</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>26730.50248</v>
+        <v>26739.64245</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>13416.46263</v>
+        <v>13417.86153</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>49236.90042000001</v>
@@ -2306,52 +2382,62 @@
         <v>35198.78541</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>22890.70576</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>22775.73626</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>69638.315</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>1035972.42908</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>983463.6829800002</v>
+        <v>983549.0843300001</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>1956155.53741</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>890646.59384</v>
+        <v>890690.6218599998</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>2104551.78933</v>
+        <v>2105538.05936</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2022695.90713</v>
+        <v>2032293.82749</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>4542492.514500001</v>
+        <v>4712219.479280001</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>3753236.04461</v>
+        <v>3760542.75772</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>7255911.35874</v>
+        <v>7255911.358740001</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>26266636.51233</v>
+        <v>26273711.02388</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>13356599.47176</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>13360099.8694</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>17640074.869</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>812.16565</v>
@@ -2378,19 +2464,24 @@
         <v>8000.03523</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>3370.998709999999</v>
+        <v>3370.99871</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>2433.49263</v>
+        <v>2433.492629999999</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>14300.1478</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>13414.89468</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>3645.243</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>172.7986</v>
@@ -2425,128 +2516,148 @@
       <c r="M42" s="48" t="n">
         <v>173.43588</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>244.017</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>151846.7232299999</v>
+        <v>151846.72323</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>134041.22306</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>385488.6288199999</v>
+        <v>385494.12601</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>137673.66579</v>
+        <v>137681.8583</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>209112.46185</v>
+        <v>209501.51752</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>315638.2917099999</v>
+        <v>315858.58663</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>276454.06989</v>
+        <v>296963.65366</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>469601.29527</v>
+        <v>470940.23361</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>770214.87917</v>
+        <v>770214.8791700001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1123956.05656</v>
+        <v>1124165.00243</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1662879.86536</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1665231.37874</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>946756.1409999999</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>541328.62731</v>
+        <v>541328.6273099999</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>507759.0086700001</v>
+        <v>507823.86089</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>810055.2162299999</v>
+        <v>810083.6287999999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>766131.60713</v>
+        <v>768030.4537200001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1022876.63219</v>
+        <v>1023270.28269</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1196081.20466</v>
+        <v>1210181.64189</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1703325.20803</v>
+        <v>1736369.92685</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>2122864.09549</v>
+        <v>2132003.83337</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>3276362.36518</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>4696572.04841</v>
+        <v>4697894.57433</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>5404428.97937</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>5416223.65106</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>5099027.464</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>483808.2989599999</v>
+        <v>483808.29896</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>438288.39231</v>
+        <v>438353.24453</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>651127.6887000001</v>
+        <v>651156.10127</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>680342.0334799998</v>
+        <v>682240.8800700001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>886119.6531599999</v>
+        <v>886513.30366</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1087444.66866</v>
+        <v>1101491.35294</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1556908.97355</v>
+        <v>1589819.58131</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1964526.07484</v>
+        <v>1973665.65405</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>2875360.65613</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>4245318.34122</v>
+        <v>4246600.69844</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>5021861.22407</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>5030994.719450001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>4719990.315</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>57520.32835</v>
@@ -2564,115 +2675,130 @@
         <v>136756.97903</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>108636.536</v>
+        <v>108690.28895</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>146416.23448</v>
+        <v>146550.34554</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>158338.02065</v>
+        <v>158338.17932</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>401001.70905</v>
+        <v>401001.7090499999</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>451253.70719</v>
+        <v>451293.87589</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>382567.7553000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>385228.93161</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>379037.149</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>462728.78873</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>862911.7673499997</v>
+        <v>875598.0830999999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>273328.31887</v>
+        <v>273358.19537</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1249415.27599</v>
+        <v>1247698.42535</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>748952.3847499999</v>
+        <v>746029.51683</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>979986.88195</v>
+        <v>1008584.02844</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>802331.6495500001</v>
+        <v>875970.3393299999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>219495.1565799999</v>
+        <v>251023.0505700001</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>295989.2258200001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>52394.90385000002</v>
+        <v>58247.1857900001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>3856382.6053</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>4108517.3508</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>751574.2340000001</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>234801.13816</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>317064.7949300001</v>
+        <v>317331.95439</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>659431.2461699999</v>
+        <v>659456.92498</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>453226.6383</v>
+        <v>455358.1377799999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>662417.9610600001</v>
+        <v>662887.04828</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>886326.5181799998</v>
+        <v>907819.1740499999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>985151.87219</v>
+        <v>1009839.35573</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1445934.4357</v>
+        <v>1448389.11033</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>1694924.3506</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>2343653.339</v>
+        <v>2346515.5775</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>2664402.45416</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>2676232.53371</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>3379611.395</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>7233.435339999999</v>
+        <v>7233.435340000001</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>3972.46355</v>
+        <v>3973.129930000001</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>31168.57668999999</v>
+        <v>31168.57669</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>6682.67265</v>
@@ -2681,106 +2807,121 @@
         <v>12896.6299</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>10507.69933</v>
+        <v>10842.64631</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>17340.7979</v>
+        <v>18707.62558</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>37964.13980999999</v>
+        <v>38019.50693</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>26684.1253</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>38989.81472</v>
+        <v>38996.14772</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>38053.08437</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>38371.7769</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>35974.306</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>227567.7028200001</v>
+        <v>227567.70282</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>313092.33138</v>
+        <v>313358.82446</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>628262.6694799999</v>
+        <v>628288.3482900001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>446543.96565</v>
+        <v>448675.46513</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>649521.3311600001</v>
+        <v>649990.41838</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>875818.8188499999</v>
+        <v>896976.5277399999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>967811.0742899998</v>
+        <v>991131.73015</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1407970.29589</v>
+        <v>1410369.6034</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>1668240.2253</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>2304663.52428</v>
+        <v>2307519.42978</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>2626349.36979</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>2637860.75681</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>3343637.089</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>280024.47853</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>306776.77239</v>
+        <v>306833.8512799999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>1180830.06811</v>
+        <v>1180905.91844</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>338410.87711</v>
+        <v>338691.5826599999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>461851.34663</v>
+        <v>464759.17042</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>831160.1941300001</v>
+        <v>838026.32681</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>591080.20731</v>
+        <v>598363.0704</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>1254801.79956</v>
+        <v>1266733.38686</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>1268036.60477</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1829971.80486</v>
+        <v>1832855.45815</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1875132.24073</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1888995.33195</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1513569.121</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>2874.84264</v>
@@ -2795,13 +2936,13 @@
         <v>4977.57798</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>6634.76423</v>
+        <v>7145.25766</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>10074.96091</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>11647.01427</v>
+        <v>11659.61451</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>16778.84399</v>
@@ -2810,208 +2951,236 @@
         <v>8501.66584</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>9333.58322</v>
+        <v>9333.583219999999</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>11501.67733</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>11529.32961</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>27671.296</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>23171.19859</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>28212.51314</v>
+        <v>28242.60130000001</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>18151.23131</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>22265.14559</v>
+        <v>22278.96275</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>23756.88991</v>
+        <v>24182.78687</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>52925.45714</v>
+        <v>53145.95024999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>43161.91575</v>
+        <v>45634.85861000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>79864.71827</v>
+        <v>80117.93553999999</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>135908.76897</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>78245.74920999999</v>
+        <v>78303.01041</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>94330.92895999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>94495.98177999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>151817.914</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>253978.4373</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>277349.49975</v>
+        <v>277376.49048</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>1155894.8489</v>
+        <v>1155970.69923</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>311168.15354</v>
+        <v>311435.0419300001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>431459.6924899999</v>
+        <v>433431.12589</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>768159.7760800002</v>
+        <v>774805.41565</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>536271.27729</v>
+        <v>541068.59728</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1158158.2373</v>
+        <v>1169836.60733</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>1123626.16996</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1742392.47243</v>
+        <v>1745218.86452</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1769299.63444</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1782970.02056</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1334079.911</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>417505.44836</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>873199.7898899999</v>
+        <v>886096.1862100002</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-248070.5030699999</v>
+        <v>-248090.79809</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1364231.03718</v>
+        <v>1364364.98047</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>949518.9991799999</v>
+        <v>944157.39469</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1035153.206</v>
+        <v>1078376.87568</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1196403.31443</v>
+        <v>1287446.62466</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>410627.79272</v>
+        <v>432678.7740400001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>722876.97165</v>
+        <v>722876.9716500001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>566076.4379899999</v>
+        <v>571907.30514</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>4645652.81873</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>4895754.55256</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2617616.508</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>165718.6734</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>194132.31579</v>
+        <v>197514.66716</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>274813.37562</v>
+        <v>274837.74946</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>284224.9672000001</v>
+        <v>284283.0917100001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>365489.05863</v>
+        <v>365647.8953800001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>436635.79125</v>
+        <v>445298.47126</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>506588.73698</v>
+        <v>531752.21311</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>558796.3996400001</v>
+        <v>565274.18587</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>644377.7834600001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>972087.66574</v>
+        <v>977855.5540400001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>1415429.35583</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>1433630.64591</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1490658.069</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>251786.77496</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>679067.4740999998</v>
+        <v>688581.5190500001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-522883.87869</v>
+        <v>-522928.5475500001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>1080006.06998</v>
+        <v>1080081.88876</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>584029.9405499999</v>
+        <v>578509.4993099999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>598517.4147500001</v>
+        <v>633078.40442</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>689814.5774500001</v>
+        <v>755694.41155</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-148168.60692</v>
+        <v>-132595.41183</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>78499.18819000003</v>
+        <v>78499.18818999994</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-406011.2277499999</v>
+        <v>-405948.2489000001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>3230223.4629</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>3462123.90665</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1126958.439</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>18400</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>19277</v>
+        <v>19278</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>20560</v>
+        <v>20565</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>21137</v>
+        <v>21159</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>21926</v>
+        <v>21978</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>23768</v>
+        <v>23876</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>25370</v>
+        <v>25678</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>26865</v>
+        <v>27000</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>29193</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>31134</v>
+        <v>32658</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>32044</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>34741</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>36192</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>